--- a/LibraryProject/테스트케이스.xlsx
+++ b/LibraryProject/테스트케이스.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kopo\kopo-02-java\LibraryProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kopo-02-java\LibraryProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F5C1B1-F9F1-480A-8587-FA8D4B7CEB8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="1"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="24105" windowHeight="12795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서이력관리" sheetId="2" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
   <si>
     <t>프로젝트_테스트케이스 Ver 1.0 최초</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -614,11 +615,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ｏ 대출 책 없는데 바코드 입력하라고 함
-ｏ 바코드 입력하면 반납되었다고 뜸</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>O</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -627,11 +623,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>o 대출 하고 나서 대출 목록을 조회하면 도서 목록이 불러와지지 않음
-o 연체되고 있는 책 내역이 업데이트 되지 않음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>일반</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -645,10 +636,6 @@
   </si>
   <si>
     <t>숫자가 아닌 것을 입력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>o 관리자 맨처음 로그인때는 숫자만 입력하라는 경고가 뜨는데 이후부터는 안뜸</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -667,26 +654,46 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>보류</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>도서 연체 중인거 잘 들어가는지 확인하고 다시 시도</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>o 4권부터 대출 불가능 하다고 뜸?</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>o 대출 중이면 삭제 불가능하다고 뜨는데, 파일에서는 삭제됨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o InputInt 메소드에 숫자만 입력하라는 경고를 만들어놨는데 안뜸
+o 문자일때는 뜨는데, 이외의 숫자를 입력했을때 예외처리를 안해놨기 때문임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o 4권부터 대출 불가능 하다고 뜸
+o ReserveBook()에서 수정 완료</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o 대출 하고 나서 대출 목록을 조회하면 도서 목록이 불러와지지 않음
+o 연체되고 있는 책 내역이 업데이트 되지 않음
+o printMemberRsvList()에서 테스트 코드 라인 삭제</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서 검색</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>o 대출 책 없는데 바코드 입력하라고 함
+o 바코드 입력하면 반납되었다고 뜸
+o 처리 완료
+o 대출하지 않은 바코드를 2번 입력하면 ConcurrentModificationException 발생
+o 대출 반납 후의 과정이 if 조건 밖에 있어서 발생한 거였음</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
@@ -853,7 +860,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="71">
     <border>
       <left/>
       <right/>
@@ -1299,17 +1306,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color auto="1"/>
       </left>
@@ -1590,11 +1586,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="hair">
         <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
         <color auto="1"/>
@@ -1611,10 +1607,183 @@
       <right style="hair">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
-      <bottom style="dotted">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1626,7 +1795,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1687,50 +1856,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1738,10 +1892,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1752,22 +1903,22 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="48" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="12" fillId="4" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="4" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="50" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="49" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="50" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="2" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1788,17 +1939,59 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="32" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="2" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="13" fillId="2" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="52" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1806,47 +1999,29 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1861,12 +2036,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1883,67 +2052,142 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준_D Project_Showing_WBS_Ver2.0(Draft)" xfId="1"/>
+    <cellStyle name="표준_D Project_Showing_WBS_Ver2.0(Draft)" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2220,7 +2464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2232,174 +2476,174 @@
       <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="11.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.796875" style="40" customWidth="1"/>
-    <col min="2" max="2" width="4.3984375" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" style="41" customWidth="1"/>
-    <col min="4" max="4" width="10.3984375" style="40" customWidth="1"/>
-    <col min="5" max="5" width="78.69921875" style="40" customWidth="1"/>
-    <col min="6" max="16384" width="8.8984375" style="40"/>
+    <col min="1" max="1" width="1.77734375" style="34" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" style="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="78.6640625" style="34" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="2:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="36" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
     </row>
     <row r="7" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="39" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="47">
+      <c r="B9" s="41">
         <v>1</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="D9" s="49" t="s">
+      <c r="D9" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="44" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="48"/>
     </row>
     <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="48"/>
     </row>
     <row r="12" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="55"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="55"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="55"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="49"/>
     </row>
     <row r="16" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="51"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="56"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="50"/>
     </row>
     <row r="17" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="55"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="49"/>
     </row>
     <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="51"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="55"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="51"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="55"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="49"/>
     </row>
     <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="55"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="49"/>
     </row>
     <row r="21" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="51"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="55"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="49"/>
     </row>
     <row r="22" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="51"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="55"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="49"/>
     </row>
     <row r="23" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="51"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="55"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="49"/>
     </row>
     <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="51"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="55"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="49"/>
     </row>
     <row r="25" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="57"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="60"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="54"/>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.2">
-      <c r="H37" s="43"/>
+      <c r="H37" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2414,32 +2658,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="7" topLeftCell="G20" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="6" ySplit="7" topLeftCell="G8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.796875" style="17" customWidth="1"/>
-    <col min="2" max="3" width="8.69921875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.19921875" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.19921875" style="18" customWidth="1"/>
-    <col min="8" max="8" width="7.69921875" style="39" customWidth="1"/>
-    <col min="9" max="9" width="48.19921875" style="18" customWidth="1"/>
-    <col min="10" max="10" width="48.296875" style="18" customWidth="1"/>
-    <col min="11" max="11" width="30.09765625" style="18" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="18"/>
+    <col min="1" max="1" width="4.77734375" style="17" customWidth="1"/>
+    <col min="2" max="3" width="8.6640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.21875" style="18" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" style="33" customWidth="1"/>
+    <col min="9" max="9" width="48.21875" style="18" customWidth="1"/>
+    <col min="10" max="10" width="48.33203125" style="18" customWidth="1"/>
+    <col min="11" max="11" width="30.109375" style="18" customWidth="1"/>
+    <col min="12" max="16384" width="8.77734375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2452,63 +2696,63 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="66"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="90"/>
       <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="68"/>
+      <c r="C3" s="92"/>
       <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="71"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="95"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="96" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="73"/>
+      <c r="C4" s="97"/>
       <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="98">
         <v>44321</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="76"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="100"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="10"/>
       <c r="C5" s="11"/>
@@ -2521,7 +2765,7 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="84" t="s">
         <v>6</v>
@@ -2542,12 +2786,12 @@
       <c r="J6" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="K6" s="77" t="s">
+      <c r="K6" s="79" t="s">
         <v>10</v>
       </c>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="12" t="s">
         <v>11</v>
@@ -2568,657 +2812,689 @@
       <c r="H7" s="87"/>
       <c r="I7" s="87"/>
       <c r="J7" s="87"/>
-      <c r="K7" s="78"/>
+      <c r="K7" s="80"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="14"/>
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="101" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="98" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99" t="s">
-        <v>86</v>
-      </c>
       <c r="H8" s="15"/>
-      <c r="I8" s="100" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" s="101"/>
+      <c r="I8" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="62"/>
       <c r="K8" s="16"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A9" s="14"/>
-      <c r="B9" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="96" t="s">
+      <c r="B9" s="103"/>
+      <c r="C9" s="104" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="104"/>
+      <c r="E9" s="104"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="106" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="107"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="17"/>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="14"/>
+      <c r="B10" s="117" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="96"/>
-      <c r="G9" s="95" t="s">
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H10" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="102"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="17"/>
-    </row>
-    <row r="10" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="79" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="102"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="104"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="123"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A11" s="14"/>
       <c r="B11" s="19"/>
-      <c r="C11" s="79" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21" t="s">
+      <c r="C11" s="81" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="I11" s="102"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="104"/>
+      <c r="I11" s="63"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="65"/>
       <c r="L11" s="17"/>
     </row>
-    <row r="12" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A12" s="14"/>
       <c r="B12" s="19"/>
-      <c r="C12" s="80" t="s">
+      <c r="C12" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="81" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="81" t="s">
-        <v>22</v>
-      </c>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
       <c r="F12" s="81"/>
-      <c r="G12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="102"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="104"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="65"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A13" s="14"/>
       <c r="B13" s="19"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="21" t="s">
+      <c r="C13" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="83" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="83"/>
+      <c r="G13" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="105"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="65"/>
       <c r="L13" s="17"/>
     </row>
-    <row r="14" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A14" s="14"/>
       <c r="B14" s="19"/>
-      <c r="C14" s="80"/>
-      <c r="D14" s="83" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="83" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="83"/>
-      <c r="G14" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="105"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="78"/>
+      <c r="G14" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="66"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A15" s="14"/>
       <c r="B15" s="19"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="105"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="72"/>
+      <c r="G15" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="66"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A16" s="14"/>
       <c r="B16" s="19"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J16" s="29"/>
-      <c r="K16" s="105"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="66"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="14"/>
       <c r="B17" s="19"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="105"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="66"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A18" s="14"/>
       <c r="B18" s="19"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="105"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="66"/>
       <c r="L18" s="17"/>
     </row>
-    <row r="19" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A19" s="14"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="83"/>
-      <c r="G19" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="105"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="66"/>
       <c r="L19" s="17"/>
     </row>
-    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A20" s="14"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="J20" s="29"/>
-      <c r="K20" s="105"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="72"/>
+      <c r="G20" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="66"/>
       <c r="L20" s="17"/>
     </row>
-    <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A21" s="14"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="83"/>
-      <c r="G21" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" s="29"/>
-      <c r="K21" s="105"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="66"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="81" x14ac:dyDescent="0.15">
       <c r="A22" s="14"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="83"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="22" t="s">
+      <c r="C22" s="82"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="72" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="72"/>
+      <c r="G22" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="24"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="14"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="125"/>
+      <c r="D23" s="126"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="126"/>
+      <c r="G23" s="127" t="s">
         <v>35</v>
       </c>
-      <c r="H22" s="23" t="s">
+      <c r="H23" s="128" t="s">
         <v>78</v>
       </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="17"/>
-    </row>
-    <row r="23" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="25" t="s">
+      <c r="I23" s="129"/>
+      <c r="J23" s="130"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="14"/>
+      <c r="B24" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C24" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="92"/>
-      <c r="E23" s="92"/>
-      <c r="F23" s="92"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23" t="s">
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="113" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="24"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="105"/>
-      <c r="L23" s="17"/>
-    </row>
-    <row r="24" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="92" t="s">
+      <c r="I24" s="114"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="14"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23" t="s">
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="24"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="105"/>
-      <c r="L24" s="17"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="92" t="s">
+      <c r="I25" s="22"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="17"/>
+    </row>
+    <row r="26" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="14"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="23" t="s">
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="105"/>
-      <c r="L25" s="17"/>
-    </row>
-    <row r="26" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="88" t="s">
+      <c r="I26" s="22"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="14"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="75" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="90" t="s">
+      <c r="D27" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="82" t="s">
+      <c r="E27" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F27" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="23" t="s">
+      <c r="G27" s="57"/>
+      <c r="H27" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I26" s="24"/>
-      <c r="J26" s="29" t="s">
+      <c r="I27" s="22"/>
+      <c r="J27" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="K26" s="105"/>
-      <c r="L26" s="17"/>
-    </row>
-    <row r="27" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="27" t="s">
+      <c r="K27" s="66"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="14"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="78"/>
+      <c r="F28" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G28" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="H27" s="23" t="s">
+      <c r="H28" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="24"/>
-      <c r="J27" s="29" t="s">
+      <c r="I28" s="22"/>
+      <c r="J28" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="K27" s="105"/>
-      <c r="L27" s="17"/>
-    </row>
-    <row r="28" spans="1:12" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="82" t="s">
+      <c r="K28" s="66"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="1:12" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A29" s="14"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="78" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="28" t="s">
+      <c r="F29" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="22" t="s">
+      <c r="G29" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="H28" s="23" t="s">
+      <c r="H29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="24"/>
-      <c r="J28" s="29" t="s">
+      <c r="I29" s="22"/>
+      <c r="J29" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K28" s="105"/>
-      <c r="L28" s="17"/>
-    </row>
-    <row r="29" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="91"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="27" t="s">
+      <c r="K29" s="66"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="14"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="78"/>
+      <c r="F30" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G30" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H30" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="24"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="105"/>
-      <c r="L29" s="17"/>
-    </row>
-    <row r="30" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="27" t="s">
+      <c r="I30" s="22"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A31" s="14"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="22" t="s">
+      <c r="G31" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="H30" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" s="24"/>
-      <c r="J30" s="29" t="s">
+      <c r="H31" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" s="22"/>
+      <c r="J31" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="K30" s="105"/>
-      <c r="L30" s="17"/>
-    </row>
-    <row r="31" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="91"/>
-      <c r="E31" s="90" t="s">
+      <c r="K31" s="66"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A32" s="14"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="28" t="s">
+      <c r="F32" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G32" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="H31" s="23" t="s">
+      <c r="H32" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I31" s="24"/>
-      <c r="J31" s="29" t="s">
+      <c r="I32" s="22"/>
+      <c r="J32" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="105"/>
-      <c r="L31" s="17"/>
-    </row>
-    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="27" t="s">
+      <c r="K32" s="66"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="1:12" ht="27" x14ac:dyDescent="0.15">
+      <c r="A33" s="14"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="22"/>
-      <c r="H32" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="24"/>
-      <c r="J32" s="29" t="s">
+      <c r="G33" s="57"/>
+      <c r="H33" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" s="22"/>
+      <c r="J33" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="K32" s="105"/>
-      <c r="L32" s="17"/>
-    </row>
-    <row r="33" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="91"/>
-      <c r="E33" s="91"/>
-      <c r="F33" s="28" t="s">
+      <c r="K33" s="66"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A34" s="14"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="102"/>
+      <c r="F34" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="G33" s="22" t="s">
+      <c r="G34" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="H33" s="23" t="s">
+      <c r="H34" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I33" s="24"/>
-      <c r="J33" s="29" t="s">
+      <c r="I34" s="22"/>
+      <c r="J34" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="K33" s="105"/>
-      <c r="L33" s="17"/>
-    </row>
-    <row r="34" spans="1:12" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="83" t="s">
+      <c r="K34" s="66"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="1:12" ht="81" x14ac:dyDescent="0.15">
+      <c r="A35" s="14"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="83" t="s">
+      <c r="E35" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="F34" s="83"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="23" t="s">
+      <c r="F35" s="72"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="I34" s="24"/>
-      <c r="J34" s="29" t="s">
+      <c r="I35" s="22"/>
+      <c r="J35" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K34" s="105"/>
-      <c r="L34" s="17"/>
-    </row>
-    <row r="35" spans="1:12" ht="88.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="83"/>
-      <c r="E35" s="83" t="s">
+      <c r="K35" s="66"/>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" spans="1:12" ht="88.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="14"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="F35" s="83"/>
-      <c r="G35" s="22" t="s">
+      <c r="F36" s="72"/>
+      <c r="G36" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="J35" s="29" t="s">
+      <c r="H36" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="K35" s="105"/>
-      <c r="L35" s="17"/>
-    </row>
-    <row r="36" spans="1:12" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="83"/>
-      <c r="E36" s="83" t="s">
+      <c r="J36" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K36" s="66"/>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="1:12" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="A37" s="14"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="72" t="s">
         <v>64</v>
       </c>
-      <c r="F36" s="83"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I36" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="J36" s="29"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="17"/>
-    </row>
-    <row r="37" spans="1:12" s="36" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93" t="s">
+      <c r="F37" s="72"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="J37" s="24"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="1:12" s="30" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="F37" s="93"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="J37" s="34"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="35"/>
-    </row>
-    <row r="38" spans="1:12" s="37" customFormat="1" ht="13.8" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="17"/>
-      <c r="H38" s="38"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" s="28"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="29"/>
+    </row>
+    <row r="39" spans="1:12" s="31" customFormat="1" ht="12.75" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="17"/>
+      <c r="H39" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="D34:D37"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="C26:C37"/>
-    <mergeCell ref="D26:D33"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="E31:E33"/>
+  <mergeCells count="38">
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:K4"/>
     <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:C22"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:C23"/>
+    <mergeCell ref="D13:D14"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="D14:D22"/>
-    <mergeCell ref="E14:F18"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D15:D23"/>
+    <mergeCell ref="E15:F19"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
-    <mergeCell ref="E19:F20"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:K4"/>
+    <mergeCell ref="E20:F21"/>
+    <mergeCell ref="C27:C38"/>
+    <mergeCell ref="D27:D34"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="E22:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
